--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1799,7 +1799,7 @@
       </c>
       <c r="AC44" s="44">
         <f>C46</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1812,7 +1812,9 @@
         <v>42</v>
       </c>
       <c r="B46" s="55"/>
-      <c r="C46" s="47"/>
+      <c r="C46" s="47">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
